--- a/Assignment/HLR excel sheet/hlr for performance glitch user.xlsx
+++ b/Assignment/HLR excel sheet/hlr for performance glitch user.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATRI ENTERPRISE\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATRI ENTERPRISE\Documents\GitHub\Nirav_Tops\Assignment\HLR excel sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10ECFEC8-F1A0-4D7F-8244-C90B62CF11B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEFCB05-ADE5-4484-9143-6F680D6D3946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>functionality id</t>
   </si>
@@ -193,6 +193,24 @@
   </si>
   <si>
     <t>while clicking on the cancel button, it is working properly, and also had opened.</t>
+  </si>
+  <si>
+    <t>check twitter icon</t>
+  </si>
+  <si>
+    <t>while clicking on twitter icon, it its working properly, and also had opened.</t>
+  </si>
+  <si>
+    <t>check facebook icon</t>
+  </si>
+  <si>
+    <t>while clicking on facebook icon, it its working properly, and also had opened.</t>
+  </si>
+  <si>
+    <t>check linkedin icon</t>
+  </si>
+  <si>
+    <t>while clicking on linkedin icon, it its working properly, and also had opened.</t>
   </si>
 </sst>
 </file>
@@ -742,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,14 +1114,47 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="38">
+    <row r="32" spans="1:3" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="40">
         <v>53</v>
       </c>
       <c r="B32" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="40">
+        <v>54</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="40">
+        <v>55</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="38">
+        <v>56</v>
+      </c>
+      <c r="B35" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C35" s="39" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Assignment/HLR excel sheet/hlr for performance glitch user.xlsx
+++ b/Assignment/HLR excel sheet/hlr for performance glitch user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATRI ENTERPRISE\Documents\GitHub\Nirav_Tops\Assignment\HLR excel sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEFCB05-ADE5-4484-9143-6F680D6D3946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4E09C3-687C-4CDA-A3C4-644673E583B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
